--- a/Course 2/Semester 1/OOP/Lab_1/Тесты - Задача 2.xlsx
+++ b/Course 2/Semester 1/OOP/Lab_1/Тесты - Задача 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12480" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Тесты" sheetId="1" r:id="rId1"/>
@@ -16,21 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="52">
   <si>
     <t>№</t>
   </si>
   <si>
-    <t>входные данные</t>
-  </si>
-  <si>
-    <t>выходные данные</t>
-  </si>
-  <si>
-    <t>полученный результат</t>
-  </si>
-  <si>
-    <t>Примечание</t>
+    <t>Входные данные</t>
+  </si>
+  <si>
+    <t>Выходные данные</t>
+  </si>
+  <si>
+    <t>Полученный результат</t>
   </si>
   <si>
     <t>Т1</t>
@@ -43,9 +40,6 @@
     <t>+</t>
   </si>
   <si>
-    <t>Точка лежит в первой четверти, вне области</t>
-  </si>
-  <si>
     <t>Т2</t>
   </si>
   <si>
@@ -53,9 +47,6 @@
 y1 = 1</t>
   </si>
   <si>
-    <t>Точка лежит в первой четверти, в области</t>
-  </si>
-  <si>
     <t>Т3</t>
   </si>
   <si>
@@ -63,9 +54,6 @@
 y1 = 2.5</t>
   </si>
   <si>
-    <t>Точка лежит в первой четверти, на грани области</t>
-  </si>
-  <si>
     <t>Т4</t>
   </si>
   <si>
@@ -73,9 +61,6 @@
 y1 = -5</t>
   </si>
   <si>
-    <t>Точка лежит во второй четверти, вне области</t>
-  </si>
-  <si>
     <t>Т5</t>
   </si>
   <si>
@@ -83,9 +68,6 @@
 y1 = 1</t>
   </si>
   <si>
-    <t>Точка лежит во второй четверти, в области</t>
-  </si>
-  <si>
     <t>Т6</t>
   </si>
   <si>
@@ -93,13 +75,7 @@
 y1 = 2.5</t>
   </si>
   <si>
-    <t>Точка лежит во второй четверти, на границе области</t>
-  </si>
-  <si>
     <t>Т7</t>
-  </si>
-  <si>
-    <t>Точка лежит в третьей четверти, вне области</t>
   </si>
   <si>
     <t>Т8</t>
@@ -109,9 +85,6 @@
 y1 = -5</t>
   </si>
   <si>
-    <t>Точка лежит в четвертой четверти, вне области</t>
-  </si>
-  <si>
     <t>Т9</t>
   </si>
   <si>
@@ -119,9 +92,6 @@
 y1 = -2.5</t>
   </si>
   <si>
-    <t>Точка лежит в четвертой четверти, на границе области</t>
-  </si>
-  <si>
     <t>Т10</t>
   </si>
   <si>
@@ -129,9 +99,6 @@
 y1 = -1</t>
   </si>
   <si>
-    <t>Точка лежит в четвертой четверти, в области</t>
-  </si>
-  <si>
     <t>Т11</t>
   </si>
   <si>
@@ -139,12 +106,6 @@
 y1 = 0</t>
   </si>
   <si>
-    <t>:w</t>
-  </si>
-  <si>
-    <t>Точка лежит в правой вершине области</t>
-  </si>
-  <si>
     <t>Т12</t>
   </si>
   <si>
@@ -152,9 +113,6 @@
 y1 = 5</t>
   </si>
   <si>
-    <t>Точка лежит в верхней вершине области</t>
-  </si>
-  <si>
     <t>Т13</t>
   </si>
   <si>
@@ -162,9 +120,6 @@
 y1 = 0</t>
   </si>
   <si>
-    <t>Точка лежит в начале координат, в области</t>
-  </si>
-  <si>
     <t>Т14</t>
   </si>
   <si>
@@ -172,17 +127,11 @@
 y1 = 0</t>
   </si>
   <si>
-    <t>Точка лежит в левой вершине области</t>
-  </si>
-  <si>
     <t>Т15</t>
   </si>
   <si>
     <t>x1 = 0
 y1 = -7</t>
-  </si>
-  <si>
-    <t>Точка лежит в нижней вершине области</t>
   </si>
   <si>
     <t>Т16</t>
@@ -211,10 +160,37 @@
     <t>Классы входных данных</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>do while(!ok)</t>
+    <t>Входит в область</t>
+  </si>
+  <si>
+    <t>Не входит в область</t>
+  </si>
+  <si>
+    <t>Лежит на границе области</t>
+  </si>
+  <si>
+    <t>x1, y1 - не числа</t>
+  </si>
+  <si>
+    <t>Количество</t>
+  </si>
+  <si>
+    <t>do {} while(!isConvert)</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>if (!isConvert) {}</t>
+  </si>
+  <si>
+    <t>y1 - x1 - 5 &lt;= 0 &amp;&amp; y1 &gt;= 0 &amp;&amp; x1 &lt;= 0</t>
+  </si>
+  <si>
+    <t>y1 - x1 + 7 &gt;= 0 &amp;&amp; x1 &gt;= 0 &amp;&amp; y1 &lt;= 0</t>
+  </si>
+  <si>
+    <t>y1 + x1 - 5 &lt;= 0 &amp;&amp; y1 &gt;= 0 &amp;&amp; x1 &gt;= 0</t>
   </si>
 </sst>
 </file>
@@ -845,19 +821,49 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -865,25 +871,16 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1164,7 +1161,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Границы внутри и снаружи" pivot="0" count="1" xr9:uid="{AF582729-B43B-44AF-99E7-7D63FFB51CD2}">
+    <tableStyle name="Границы внутри и снаружи" pivot="0" count="1" xr9:uid="{2CC3D528-27A7-460C-B40A-7814ED4D1C4E}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
@@ -1448,320 +1445,288 @@
   <sheetPr/>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9.14285714285714" style="1"/>
-    <col min="2" max="2" width="17.4285714285714" style="4" customWidth="1"/>
-    <col min="3" max="3" width="25.5714285714286" style="5" customWidth="1"/>
+    <col min="2" max="2" width="17.4285714285714" style="14" customWidth="1"/>
+    <col min="3" max="3" width="25.5714285714286" style="15" customWidth="1"/>
     <col min="4" max="4" width="21.7142857142857" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="9.14285714285714" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="17"/>
+    </row>
+    <row r="2" ht="30" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="60" spans="1:5">
-      <c r="A2" s="9" t="s">
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="9" t="b">
+      <c r="C2" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" ht="30" spans="1:5">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" ht="60" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="C3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" ht="30" spans="1:5">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="b">
+      <c r="C4" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" ht="30" spans="1:5">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" ht="60" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="B5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C5" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="19"/>
+    </row>
+    <row r="6" ht="30" spans="1:5">
+      <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="13" t="b">
+      <c r="B6" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="60" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="19"/>
+    </row>
+    <row r="7" ht="30" spans="1:5">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13" t="b">
+      <c r="C7" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="19"/>
+    </row>
+    <row r="8" ht="30" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" ht="60" spans="1:5">
-      <c r="A6" s="6" t="s">
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" ht="30" spans="1:5">
+      <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="13" t="b">
+      <c r="C9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" ht="30" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" ht="75" spans="1:5">
-      <c r="A7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" ht="30" spans="1:5">
+      <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="7" t="b">
+      <c r="B11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" ht="60" spans="1:5">
-      <c r="A8" s="6" t="s">
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="19"/>
+    </row>
+    <row r="12" ht="30" spans="1:5">
+      <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="B12" s="18" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" ht="60" spans="1:5">
-      <c r="A9" s="6" t="s">
+      <c r="C12" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" ht="30" spans="1:5">
+      <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B13" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="7" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="11" t="s">
+      <c r="C13" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="19"/>
+    </row>
+    <row r="14" ht="30" spans="1:5">
+      <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" ht="75" spans="1:5">
-      <c r="A10" s="6" t="s">
+      <c r="B14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="C14" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="19"/>
+    </row>
+    <row r="15" ht="30" spans="1:5">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="7" t="b">
+      <c r="B15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" ht="60" spans="1:5">
-      <c r="A11" s="6" t="s">
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="19"/>
+    </row>
+    <row r="16" ht="30" spans="1:5">
+      <c r="A16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="7" t="b">
+      <c r="C16" s="16" t="b">
         <v>1</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="19"/>
+    </row>
+    <row r="17" ht="45" spans="1:5">
+      <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" ht="60" spans="1:5">
-      <c r="A12" s="6" t="s">
+      <c r="B17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="C17" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="D17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="17"/>
+    </row>
+    <row r="18" ht="75" spans="1:5">
+      <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="B18" s="18" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" ht="60" spans="1:5">
-      <c r="A13" s="6" t="s">
+      <c r="C18" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" ht="60" spans="1:5">
-      <c r="A14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" ht="45" spans="1:5">
-      <c r="A15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" ht="60" spans="1:5">
-      <c r="A16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" ht="45" spans="1:5">
-      <c r="A17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" ht="75" spans="1:5">
-      <c r="A18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="8"/>
+      <c r="D18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1772,113 +1737,435 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="6" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="25.7142857142857" style="8" customWidth="1"/>
+    <col min="2" max="18" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="2" t="s">
-        <v>57</v>
+      <c r="A1" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="N1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="Q1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2"/>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="13"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1889,40 +2176,496 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.1428571428571" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="25.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9.14285714285714" style="1"/>
+    <col min="6" max="6" width="9.14285714285714" style="2"/>
+    <col min="8" max="19" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
-        <v>58</v>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
